--- a/修論/本文0117/その他/ぺガードの法則.xlsx
+++ b/修論/本文0117/その他/ぺガードの法則.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Documents\yakisaba\修論\本文0105\その他\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Documents\yakisaba\修論\本文0117\その他\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20452EE6-1E30-41D7-919F-75E347F9E080}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C81CCC-BAE4-4E35-81EF-477443886118}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="540" windowWidth="23805" windowHeight="15000" activeTab="2" xr2:uid="{CEC327A6-7811-CC4A-AEB1-AF6C65100CF1}"/>
+    <workbookView xWindow="2175" yWindow="540" windowWidth="23805" windowHeight="15000" activeTab="2" xr2:uid="{CEC327A6-7811-CC4A-AEB1-AF6C65100CF1}"/>
   </bookViews>
   <sheets>
     <sheet name="格子定数" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="93">
   <si>
     <t>x</t>
     <phoneticPr fontId="1"/>
@@ -382,6 +382,33 @@
   </si>
   <si>
     <t>ps</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GaAs(x)P(1-x)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GaP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>In(1-x)Ga(x)P</t>
+  </si>
+  <si>
+    <t>InAs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>InGaAs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>at 1030</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -787,6 +814,12 @@
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -798,12 +831,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1607,127 +1634,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>3.3856498350161273</c:v>
+                  <c:v>3.2043738170193135</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3762049277035535</c:v>
+                  <c:v>3.1984817543648427</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3672966522724908</c:v>
+                  <c:v>3.1929013778259221</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3588764675432401</c:v>
+                  <c:v>3.1876064471022332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.350902336325567</c:v>
+                  <c:v>3.1825740530359052</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.3433375388825017</c:v>
+                  <c:v>3.17778402843709</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.336149758473379</c:v>
+                  <c:v>3.1732184920522499</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3293103651527352</c:v>
+                  <c:v>3.1688614897698271</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3227938467567304</c:v>
+                  <c:v>3.1646987081988978</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.3165773510080965</c:v>
+                  <c:v>3.1607172430374657</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.3106403127837454</c:v>
+                  <c:v>3.156905409558961</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.3049641475482847</c:v>
+                  <c:v>3.1532525859278286</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.2995319968347792</c:v>
+                  <c:v>3.1497490824278755</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2943285151314385</c:v>
+                  <c:v>3.1463860313800813</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2893396900502792</c:v>
+                  <c:v>3.1431552937535168</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.2845526895020232</c:v>
+                  <c:v>3.1400493793749336</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.2799557309763689</c:v>
+                  <c:v>3.1370613783143897</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.2755379690617725</c:v>
+                  <c:v>3.134184901530777</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.2712893981268474</c:v>
+                  <c:v>3.1314140292473618</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.2672007676916119</c:v>
+                  <c:v>3.1287432658250549</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.2632635084875776</c:v>
+                  <c:v>3.1261675001327416</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.2594696675745944</c:v>
+                  <c:v>3.1236819705958574</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.2558118511739877</c:v>
+                  <c:v>3.1212822342484556</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.2522831741097602</c:v>
+                  <c:v>3.1189641392290262</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.2488772149360741</c:v>
+                  <c:v>3.1167238002528408</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.2455879759798463</c:v>
+                  <c:v>3.1145575766685534</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.242409847649836</c:v>
+                  <c:v>3.1124620527679312</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.2393375764638832</c:v>
+                  <c:v>3.1104340200677338</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.2363662363285393</c:v>
+                  <c:v>3.1084704613241971</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.233491202673652</c:v>
+                  <c:v>3.1065685360749509</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.2307081291013624</c:v>
+                  <c:v>3.1047255675318981</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.228012926256512</c:v>
+                  <c:v>3.1029390306726468</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.225401742665416</c:v>
+                  <c:v>3.1012065413983736</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.222870947323683</c:v>
+                  <c:v>3.0995258466431603</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.2204171138423172</c:v>
+                  <c:v>3.0978948153344561</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.2180370059856727</c:v>
+                  <c:v>3.0963114301167498</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.2157275644555599</c:v>
+                  <c:v>3.0947737797612427</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.2134858947936396</c:v>
+                  <c:v>3.0932800521934678</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.2113092562895091</c:v>
+                  <c:v>3.0918285280787448</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.2091950517951338</c:v>
+                  <c:v>3.0904175749121978</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.2071408183576815</c:v>
+                  <c:v>3.0890456415660448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1906,127 +1933,127 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>3.2737379360804435</c:v>
+                  <c:v>3.3045221231683137</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2670904133119403</c:v>
+                  <c:v>3.2975971083440974</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2607633099535547</c:v>
+                  <c:v>3.2910072615749253</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2547341975351611</c:v>
+                  <c:v>3.2847290174548851</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2489827944400944</c:v>
+                  <c:v>3.278741075619489</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.243490697656902</c:v>
+                  <c:v>3.2730241167882062</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.2382411564358433</c:v>
+                  <c:v>3.2675605632692033</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2332188799867723</c:v>
+                  <c:v>3.2623343755708007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2284098730676218</c:v>
+                  <c:v>3.2573308785854769</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2238012946040988</c:v>
+                  <c:v>3.2525366121853971</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2193813354659757</c:v>
+                  <c:v>3.2479392021154339</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.2151391122841</c:v>
+                  <c:v>3.2435272478761235</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.2110645747825006</c:v>
+                  <c:v>3.2392902249163531</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2071484245633082</c:v>
+                  <c:v>3.2352183989478447</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.20338204364892</c:v>
+                  <c:v>3.2313027505831342</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.199757431378448</c:v>
+                  <c:v>3.2275349088094649</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.1962671484905689</c:v>
+                  <c:v>3.2239070920607054</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.1929042674151886</c:v>
+                  <c:v>3.220412055851352</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.1896623279512424</c:v>
+                  <c:v>3.2170430461011712</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.1865352976349426</c:v>
+                  <c:v>3.2137937574137108</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.1835175362073951</c:v>
+                  <c:v>3.2106582956829408</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.1806037636771869</c:v>
+                  <c:v>3.2076311444941967</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.1777890315457653</c:v>
+                  <c:v>3.2047071348621614</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.1750686968238018</c:v>
+                  <c:v>3.2018814179126425</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.1724383985175577</c:v>
+                  <c:v>3.1991494401687355</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.1698940363071086</c:v>
+                  <c:v>3.1965069211473702</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.1674317511746519</c:v>
+                  <c:v>3.193949833010759</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.1650479077720552</c:v>
+                  <c:v>3.1914743820499929</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.1627390783432197</c:v>
+                  <c:v>3.1890769918060355</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.1605020280394887</c:v>
+                  <c:v>3.1867542876573136</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.1583337014858275</c:v>
+                  <c:v>3.1845030827237291</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.1562312104722823</c:v>
+                  <c:v>3.1823203649547089</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.1541918226598247</c:v>
+                  <c:v>3.1802032852842705</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.1522129512022716</c:v>
+                  <c:v>3.1781491467494729</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.1502921451970045</c:v>
+                  <c:v>3.1761553944802068</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3.1484270808867865</c:v>
+                  <c:v>3.17421960647845</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.1466155535433877</c:v>
+                  <c:v>3.1723394851139672</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.1448554699710973</c:v>
+                  <c:v>3.1705128492712196</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.1431448415746557</c:v>
+                  <c:v>3.1687376270890923</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3.1414817779418964</c:v>
+                  <c:v>3.1670118492410677</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.139864480896378</c:v>
+                  <c:v>3.1653336427088026</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4598,7 +4625,7 @@
       </c>
     </row>
     <row r="2" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="41" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="5">
@@ -4649,7 +4676,7 @@
       </c>
     </row>
     <row r="3" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C3" s="39"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="5">
         <v>0.41760000000000003</v>
       </c>
@@ -4688,7 +4715,7 @@
       </c>
     </row>
     <row r="4" spans="3:20" x14ac:dyDescent="0.4">
-      <c r="C4" s="39"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="5">
         <v>0.18959999999999999</v>
       </c>
@@ -4723,7 +4750,7 @@
       </c>
     </row>
     <row r="5" spans="3:20" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C5" s="40"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="6">
         <v>1.2500000000000001E-2</v>
       </c>
@@ -4957,7 +4984,7 @@
       </c>
     </row>
     <row r="2" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="43" t="s">
         <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -4987,7 +5014,7 @@
       </c>
     </row>
     <row r="3" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="C3" s="39"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
@@ -5022,7 +5049,7 @@
       </c>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="C4" s="39"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
@@ -5052,7 +5079,7 @@
       </c>
     </row>
     <row r="5" spans="3:15" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C5" s="40"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="6" t="s">
         <v>65</v>
       </c>
@@ -5085,10 +5112,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2642D23-1F6F-2541-9981-B3BD6EDF2684}">
-  <dimension ref="B1:T61"/>
+  <dimension ref="B1:AC61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -5101,10 +5128,13 @@
     <col min="9" max="12" width="10.6640625" style="14"/>
     <col min="13" max="13" width="9.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.6640625" style="14"/>
+    <col min="15" max="27" width="10.6640625" style="14"/>
+    <col min="28" max="28" width="9.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="10.6640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="D1" s="27" t="s">
@@ -5117,7 +5147,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B2" s="27" t="s">
         <v>23</v>
       </c>
@@ -5134,7 +5164,7 @@
         <v>0.17899999999999999</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B3" s="27"/>
       <c r="C3" s="27" t="s">
         <v>33</v>
@@ -5147,15 +5177,33 @@
         <v>-2.4500000000000002</v>
       </c>
       <c r="F3" s="27"/>
-    </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="R3" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="S3" s="14">
+        <v>3.613</v>
+      </c>
+      <c r="T3" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
-    </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="R4" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="S4" s="14">
+        <v>3.05</v>
+      </c>
+      <c r="T4" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B5" s="27" t="s">
         <v>25</v>
       </c>
@@ -5171,8 +5219,18 @@
       <c r="F5" s="27">
         <v>0.59499999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="R5" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="S5" s="14">
+        <f>S3*0.298+K44*(1-0.298)</f>
+        <v>3.5307313077716396</v>
+      </c>
+      <c r="T5" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B6" s="27"/>
       <c r="C6" s="27" t="s">
         <v>33</v>
@@ -5185,7 +5243,7 @@
       </c>
       <c r="F6" s="27"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B7" s="27" t="s">
         <v>62</v>
       </c>
@@ -5202,7 +5260,7 @@
         <v>0.59499999999999997</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B8" s="27"/>
       <c r="C8" s="27" t="s">
         <v>33</v>
@@ -5215,8 +5273,12 @@
       </c>
       <c r="F8" s="27"/>
     </row>
-    <row r="10" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="P10" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="16" t="s">
         <v>34</v>
       </c>
@@ -5239,8 +5301,17 @@
       <c r="S11" s="14" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="V11" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y11" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB11" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B12" s="19" t="s">
         <v>35</v>
       </c>
@@ -5261,14 +5332,13 @@
         <v>0</v>
       </c>
       <c r="N12" s="14">
-        <v>0.55000000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="P12" s="14" t="s">
         <v>0</v>
       </c>
       <c r="Q12" s="14">
-        <f>1-0.485</f>
-        <v>0.51500000000000001</v>
+        <v>1</v>
       </c>
       <c r="S12" s="14" t="s">
         <v>0</v>
@@ -5277,8 +5347,26 @@
         <f>1-0.255</f>
         <v>0.745</v>
       </c>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="V12" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="W12" s="14">
+        <v>0.71</v>
+      </c>
+      <c r="Y12" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z12" s="14">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="AB12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="14">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B13" s="19" t="s">
         <v>37</v>
       </c>
@@ -5301,14 +5389,14 @@
       </c>
       <c r="N13" s="14">
         <f>$D$2+$E$2*N12+$F$2*N12*N12</f>
-        <v>4.1831975000000003</v>
+        <v>4.1302499999999993</v>
       </c>
       <c r="P13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="Q13" s="14">
         <f>D5+E5*Q12+F5*Q12*Q12</f>
-        <v>3.8186688750000002</v>
+        <v>4.51</v>
       </c>
       <c r="S13" s="14" t="s">
         <v>28</v>
@@ -5317,8 +5405,21 @@
         <f>D7+E7*T12+F7*T12*T12</f>
         <v>4.1116198749999997</v>
       </c>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="Y13" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z13" s="14">
+        <v>3.8186688750000002</v>
+      </c>
+      <c r="AB13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC13" s="14">
+        <f>$D$2+$E$2*AC12+$F$2*AC12*AC12</f>
+        <v>4.1831975000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B14" s="19" t="s">
         <v>38</v>
       </c>
@@ -5341,14 +5442,14 @@
       </c>
       <c r="N14" s="14">
         <f>$D$3+$E$3*N12</f>
-        <v>34.752499999999998</v>
+        <v>34.875</v>
       </c>
       <c r="P14" s="14" t="s">
         <v>33</v>
       </c>
       <c r="Q14" s="14">
         <f>D6+E6*Q12</f>
-        <v>32.793100000000003</v>
+        <v>36.450000000000003</v>
       </c>
       <c r="S14" s="14" t="s">
         <v>33</v>
@@ -5357,8 +5458,21 @@
         <f>D8+E8*T12</f>
         <v>34.527299999999997</v>
       </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="Y14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z14" s="14">
+        <v>32.793100000000003</v>
+      </c>
+      <c r="AB14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC14" s="14">
+        <f>$D$3+$E$3*AC12</f>
+        <v>34.752499999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B15" s="19" t="s">
         <v>40</v>
       </c>
@@ -5394,8 +5508,20 @@
       <c r="T15" s="14">
         <v>1.06751</v>
       </c>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="Y15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z15" s="14">
+        <v>1.89061185</v>
+      </c>
+      <c r="AB15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC15" s="14">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B16" s="19" t="s">
         <v>43</v>
       </c>
@@ -5419,14 +5545,14 @@
       </c>
       <c r="N16" s="32">
         <f>PI()*N14/(2*N13^3*(N13^2-N15^2))</f>
-        <v>5.7913288003838569E-2</v>
+        <v>6.2518438107792854E-2</v>
       </c>
       <c r="P16" s="14" t="s">
         <v>51</v>
       </c>
       <c r="Q16" s="32">
         <f>PI()*Q14/(2*Q13^3*(Q13^2-Q15^2))</f>
-        <v>8.4035942225448204E-2</v>
+        <v>3.7227719619650504E-2</v>
       </c>
       <c r="S16" s="14" t="s">
         <v>51</v>
@@ -5435,8 +5561,21 @@
         <f>PI()*T14/(2*T13^3*(T13^2-T15^2))</f>
         <v>4.9491030807251223E-2</v>
       </c>
-    </row>
-    <row r="17" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Y16" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z16" s="32">
+        <v>8.4035942225448204E-2</v>
+      </c>
+      <c r="AB16" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC16" s="32">
+        <f>PI()*AC14/(2*AC13^3*(AC13^2-AC15^2))</f>
+        <v>5.7913288003838569E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B17" s="24" t="s">
         <v>41</v>
       </c>
@@ -5459,7 +5598,7 @@
       </c>
       <c r="N17" s="33">
         <f>$N$14/$N$13+$N$14/$N$13^3*$C$11^2+$N$16/PI()*$C$11^4*LN((2*$N$13^2-$N$15^2-$C$11^2)/($N$15^2-$C$11^2))</f>
-        <v>9.0810612295503947</v>
+        <v>9.2520446143742738</v>
       </c>
       <c r="P17" s="14" t="s">
         <v>53</v>
@@ -5467,22 +5606,32 @@
       <c r="S17" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="Y17" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB17" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC17" s="33">
+        <f>$N$14/$N$13+$N$14/$N$13^3*$C$11^2+$N$16/PI()*$C$11^4*LN((2*$N$13^2-$N$15^2-$C$11^2)/($N$15^2-$C$11^2))</f>
+        <v>9.2520446143742738</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I18" s="34"/>
       <c r="J18" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="K18" s="43">
+      <c r="K18" s="39">
         <f>SQRT(K17+1)</f>
         <v>3.495808130728832</v>
       </c>
       <c r="M18" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="N18" s="43">
+      <c r="N18" s="39">
         <f>SQRT(N17+1)</f>
-        <v>3.1750686968238018</v>
+        <v>3.2018814179126425</v>
       </c>
       <c r="P18" s="14" t="s">
         <v>49</v>
@@ -5493,8 +5642,18 @@
       <c r="T18" s="14">
         <v>3.168117583238458</v>
       </c>
-    </row>
-    <row r="20" spans="2:20" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="Y18" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB18" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC18" s="39">
+        <f>SQRT(AC17+1)</f>
+        <v>3.2018814179126425</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H20" t="s">
         <v>37</v>
       </c>
@@ -5516,8 +5675,14 @@
       <c r="N20" s="14" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="2:20" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="AB20" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC20" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H21">
         <v>800</v>
       </c>
@@ -5539,19 +5704,19 @@
       </c>
       <c r="M21" s="33">
         <f>N$14/N$13+N$14/N$13^3*$I21^2+N$16/PI()*$I21^4*LN((2*N$13^2-N$15^2-$I21^2)/(N$15^2-$I21^2))</f>
-        <v>9.717360074132241</v>
+        <v>9.9198664625088195</v>
       </c>
       <c r="N21" s="15">
         <f>SQRT(M21+1)</f>
-        <v>3.2737379360804435</v>
+        <v>3.3045221231683137</v>
       </c>
       <c r="P21" s="33">
         <f>Q$14/Q$13+Q$14/Q$13^3*$I21^2+Q$16/PI()*$I21^4*LN((2*Q$13^2-Q$15^2-$I21^2)/(Q$15^2-$I21^2))</f>
-        <v>10.462624805344729</v>
-      </c>
-      <c r="Q21" s="44">
+        <v>9.2680115591989249</v>
+      </c>
+      <c r="Q21" s="40">
         <f>SQRT(P21+1)</f>
-        <v>3.3856498350161273</v>
+        <v>3.2043738170193135</v>
       </c>
       <c r="S21" s="33" t="e">
         <f>T$14/T$13+T$14/T$13^3*$I21^2+T$16/PI()*$I21^4*LN((2*T$13^2-T$15^2-$I21^2)/(T$15^2-$I21^2))</f>
@@ -5561,8 +5726,26 @@
         <f>SQRT(S21+1)</f>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="22" spans="2:20" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="W21" s="14" t="e">
+        <f>0.71*K21+(1-0.71)*Q21</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y21" s="33">
+        <v>10.462624805344729</v>
+      </c>
+      <c r="Z21" s="40">
+        <v>3.3856498350161273</v>
+      </c>
+      <c r="AB21" s="33">
+        <f>AC$14/AC$13+AC$14/AC$13^3*$I21^2+AC$16/PI()*$I21^4*LN((2*AC$13^2-AC$15^2-$I21^2)/(AC$15^2-$I21^2))</f>
+        <v>9.717360074132241</v>
+      </c>
+      <c r="AC21" s="15">
+        <f>SQRT(AB21+1)</f>
+        <v>3.2737379360804435</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H22">
         <v>810</v>
       </c>
@@ -5584,30 +5767,48 @@
       </c>
       <c r="M22" s="33">
         <f t="shared" ref="M22:M61" si="4">N$14/N$13+N$14/N$13^3*$I22^2+N$16/PI()*$I22^4*LN((2*N$13^2-N$15^2-$I22^2)/(N$15^2-$I22^2))</f>
-        <v>9.6738797687547837</v>
+        <v>9.8741466889593532</v>
       </c>
       <c r="N22" s="15">
         <f t="shared" ref="N22:N61" si="5">SQRT(M22+1)</f>
+        <v>3.2975971083440974</v>
+      </c>
+      <c r="P22" s="33">
+        <f>Q$14/Q$13+Q$14/Q$13^3*$I22^2+Q$16/PI()*$I22^4*LN((2*Q$13^2-Q$15^2-$I22^2)/(Q$15^2-$I22^2))</f>
+        <v>9.2302855330048033</v>
+      </c>
+      <c r="Q22" s="14">
+        <f>SQRT(P22+1)</f>
+        <v>3.1984817543648427</v>
+      </c>
+      <c r="S22" s="33" t="e">
+        <f t="shared" ref="S22:S61" si="6">T$14/T$13+T$14/T$13^3*$I22^2+T$16/PI()*$I22^4*LN((2*T$13^2-T$15^2-$I22^2)/(T$15^2-$I22^2))</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="T22" s="14" t="e">
+        <f t="shared" ref="T22:T61" si="7">SQRT(S22+1)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="W22" s="14" t="e">
+        <f t="shared" ref="W22:W61" si="8">0.71*K22+(1-0.71)*Q22</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y22" s="33">
+        <v>10.398759713849758</v>
+      </c>
+      <c r="Z22" s="14">
+        <v>3.3762049277035535</v>
+      </c>
+      <c r="AB22" s="33">
+        <f t="shared" ref="AB22:AB61" si="9">AC$14/AC$13+AC$14/AC$13^3*$I22^2+AC$16/PI()*$I22^4*LN((2*AC$13^2-AC$15^2-$I22^2)/(AC$15^2-$I22^2))</f>
+        <v>9.6738797687547837</v>
+      </c>
+      <c r="AC22" s="15">
+        <f t="shared" ref="AC22:AC61" si="10">SQRT(AB22+1)</f>
         <v>3.2670904133119403</v>
       </c>
-      <c r="P22" s="33">
-        <f t="shared" ref="P22:P61" si="6">Q$14/Q$13+Q$14/Q$13^3*$I22^2+Q$16/PI()*$I22^4*LN((2*Q$13^2-Q$15^2-$I22^2)/(Q$15^2-$I22^2))</f>
-        <v>10.398759713849758</v>
-      </c>
-      <c r="Q22" s="14">
-        <f t="shared" ref="Q22:Q61" si="7">SQRT(P22+1)</f>
-        <v>3.3762049277035535</v>
-      </c>
-      <c r="S22" s="33" t="e">
-        <f t="shared" ref="S22:S61" si="8">T$14/T$13+T$14/T$13^3*$I22^2+T$16/PI()*$I22^4*LN((2*T$13^2-T$15^2-$I22^2)/(T$15^2-$I22^2))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="T22" s="14" t="e">
-        <f t="shared" ref="T22:T61" si="9">SQRT(S22+1)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="23" spans="2:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H23">
         <v>820</v>
       </c>
@@ -5629,30 +5830,48 @@
       </c>
       <c r="M23" s="33">
         <f t="shared" si="4"/>
-        <v>9.6325773635392604</v>
+        <v>9.8307287957388887</v>
       </c>
       <c r="N23" s="15">
         <f t="shared" si="5"/>
+        <v>3.2910072615749253</v>
+      </c>
+      <c r="P23" s="33">
+        <f t="shared" ref="P22:P61" si="11">Q$14/Q$13+Q$14/Q$13^3*$I23^2+Q$16/PI()*$I23^4*LN((2*Q$13^2-Q$15^2-$I23^2)/(Q$15^2-$I23^2))</f>
+        <v>9.1946192085226723</v>
+      </c>
+      <c r="Q23" s="14">
+        <f t="shared" ref="Q22:Q61" si="12">SQRT(P23+1)</f>
+        <v>3.1929013778259221</v>
+      </c>
+      <c r="S23" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T23" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W23" s="14" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y23" s="33">
+        <v>10.338686744405525</v>
+      </c>
+      <c r="Z23" s="14">
+        <v>3.3672966522724908</v>
+      </c>
+      <c r="AB23" s="33">
+        <f t="shared" si="9"/>
+        <v>9.6325773635392604</v>
+      </c>
+      <c r="AC23" s="15">
+        <f t="shared" si="10"/>
         <v>3.2607633099535547</v>
       </c>
-      <c r="P23" s="33">
-        <f t="shared" si="6"/>
-        <v>10.338686744405525</v>
-      </c>
-      <c r="Q23" s="14">
-        <f t="shared" si="7"/>
-        <v>3.3672966522724908</v>
-      </c>
-      <c r="S23" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T23" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="24" spans="2:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="24" spans="2:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H24">
         <v>830</v>
       </c>
@@ -5674,30 +5893,48 @@
       </c>
       <c r="M24" s="33">
         <f t="shared" si="4"/>
-        <v>9.5932946966048505</v>
+        <v>9.7894447181101363</v>
       </c>
       <c r="N24" s="15">
         <f t="shared" si="5"/>
+        <v>3.2847290174548851</v>
+      </c>
+      <c r="P24" s="33">
+        <f t="shared" si="11"/>
+        <v>9.1608348616077215</v>
+      </c>
+      <c r="Q24" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1876064471022332</v>
+      </c>
+      <c r="S24" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T24" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W24" s="14" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y24" s="33">
+        <v>10.282051124215755</v>
+      </c>
+      <c r="Z24" s="14">
+        <v>3.3588764675432401</v>
+      </c>
+      <c r="AB24" s="33">
+        <f t="shared" si="9"/>
+        <v>9.5932946966048505</v>
+      </c>
+      <c r="AC24" s="15">
+        <f t="shared" si="10"/>
         <v>3.2547341975351611</v>
       </c>
-      <c r="P24" s="33">
-        <f t="shared" si="6"/>
-        <v>10.282051124215755</v>
-      </c>
-      <c r="Q24" s="14">
-        <f t="shared" si="7"/>
-        <v>3.3588764675432401</v>
-      </c>
-      <c r="S24" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T24" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="25" spans="2:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="25" spans="2:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H25">
         <v>840</v>
       </c>
@@ -5719,30 +5956,48 @@
       </c>
       <c r="M25" s="33">
         <f t="shared" si="4"/>
-        <v>9.5558891985677654</v>
+        <v>9.750143040954443</v>
       </c>
       <c r="N25" s="15">
         <f t="shared" si="5"/>
+        <v>3.278741075619489</v>
+      </c>
+      <c r="P25" s="33">
+        <f t="shared" si="11"/>
+        <v>9.1287776030573884</v>
+      </c>
+      <c r="Q25" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1825740530359052</v>
+      </c>
+      <c r="S25" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T25" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W25" s="14" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y25" s="33">
+        <v>10.228546467592144</v>
+      </c>
+      <c r="Z25" s="14">
+        <v>3.350902336325567</v>
+      </c>
+      <c r="AB25" s="33">
+        <f t="shared" si="9"/>
+        <v>9.5558891985677654</v>
+      </c>
+      <c r="AC25" s="15">
+        <f t="shared" si="10"/>
         <v>3.2489827944400944</v>
       </c>
-      <c r="P25" s="33">
-        <f t="shared" si="6"/>
-        <v>10.228546467592144</v>
-      </c>
-      <c r="Q25" s="14">
-        <f t="shared" si="7"/>
-        <v>3.350902336325567</v>
-      </c>
-      <c r="S25" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T25" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="26" spans="2:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H26">
         <v>850</v>
       </c>
@@ -5764,30 +6019,48 @@
       </c>
       <c r="M26" s="33">
         <f t="shared" si="4"/>
-        <v>9.5202319057868561</v>
+        <v>9.712686869077217</v>
       </c>
       <c r="N26" s="15">
         <f t="shared" si="5"/>
+        <v>3.2730241167882062</v>
+      </c>
+      <c r="P26" s="33">
+        <f t="shared" si="11"/>
+        <v>9.0983113313898585</v>
+      </c>
+      <c r="Q26" s="14">
+        <f t="shared" si="12"/>
+        <v>3.17778402843709</v>
+      </c>
+      <c r="S26" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T26" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W26" s="14" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y26" s="33">
+        <v>10.177905898900903</v>
+      </c>
+      <c r="Z26" s="14">
+        <v>3.3433375388825017</v>
+      </c>
+      <c r="AB26" s="33">
+        <f t="shared" si="9"/>
+        <v>9.5202319057868561</v>
+      </c>
+      <c r="AC26" s="15">
+        <f t="shared" si="10"/>
         <v>3.243490697656902</v>
       </c>
-      <c r="P26" s="33">
-        <f t="shared" si="6"/>
-        <v>10.177905898900903</v>
-      </c>
-      <c r="Q26" s="14">
-        <f t="shared" si="7"/>
-        <v>3.3433375388825017</v>
-      </c>
-      <c r="S26" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T26" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="27" spans="2:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H27">
         <v>860</v>
       </c>
@@ -5809,30 +6082,48 @@
       </c>
       <c r="M27" s="33">
         <f t="shared" si="4"/>
-        <v>9.4862057872349475</v>
+        <v>9.6769520346321531</v>
       </c>
       <c r="N27" s="15">
         <f t="shared" si="5"/>
+        <v>3.2675605632692033</v>
+      </c>
+      <c r="P27" s="33">
+        <f t="shared" si="11"/>
+        <v>9.0693155983023548</v>
+      </c>
+      <c r="Q27" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1732184920522499</v>
+      </c>
+      <c r="S27" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T27" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W27" s="14" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y27" s="33">
+        <v>10.129895210961985</v>
+      </c>
+      <c r="Z27" s="14">
+        <v>3.336149758473379</v>
+      </c>
+      <c r="AB27" s="33">
+        <f t="shared" si="9"/>
+        <v>9.4862057872349475</v>
+      </c>
+      <c r="AC27" s="15">
+        <f t="shared" si="10"/>
         <v>3.2382411564358433</v>
       </c>
-      <c r="P27" s="33">
-        <f t="shared" si="6"/>
-        <v>10.129895210961985</v>
-      </c>
-      <c r="Q27" s="14">
-        <f t="shared" si="7"/>
-        <v>3.336149758473379</v>
-      </c>
-      <c r="S27" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T27" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="28" spans="2:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H28">
         <v>870</v>
       </c>
@@ -5854,30 +6145,48 @@
       </c>
       <c r="M28" s="33">
         <f t="shared" si="4"/>
-        <v>9.4537043259029172</v>
+        <v>9.6428255780309264</v>
       </c>
       <c r="N28" s="15">
         <f t="shared" si="5"/>
+        <v>3.2623343755708007</v>
+      </c>
+      <c r="P28" s="33">
+        <f t="shared" si="11"/>
+        <v>9.0416831413462475</v>
+      </c>
+      <c r="Q28" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1688614897698271</v>
+      </c>
+      <c r="S28" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T28" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W28" s="14" t="e">
+        <f t="shared" si="8"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y28" s="33">
+        <v>10.08430750751344</v>
+      </c>
+      <c r="Z28" s="14">
+        <v>3.3293103651527352</v>
+      </c>
+      <c r="AB28" s="33">
+        <f t="shared" si="9"/>
+        <v>9.4537043259029172</v>
+      </c>
+      <c r="AC28" s="15">
+        <f t="shared" si="10"/>
         <v>3.2332188799867723</v>
       </c>
-      <c r="P28" s="33">
-        <f t="shared" si="6"/>
-        <v>10.08430750751344</v>
-      </c>
-      <c r="Q28" s="14">
-        <f t="shared" si="7"/>
-        <v>3.3293103651527352</v>
-      </c>
-      <c r="S28" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T28" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="2:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H29">
         <v>880</v>
       </c>
@@ -5899,30 +6208,48 @@
       </c>
       <c r="M29" s="33">
         <f t="shared" si="4"/>
-        <v>9.4226303085204979</v>
+        <v>9.6102044525864336</v>
       </c>
       <c r="N29" s="15">
         <f t="shared" si="5"/>
+        <v>3.2573308785854769</v>
+      </c>
+      <c r="P29" s="33">
+        <f t="shared" si="11"/>
+        <v>9.0153179136757728</v>
+      </c>
+      <c r="Q29" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1646987081988978</v>
+      </c>
+      <c r="S29" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T29" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W29" s="14">
+        <f>0.71*K29+(1-0.71)*Q29</f>
+        <v>3.4949992634425495</v>
+      </c>
+      <c r="Y29" s="33">
+        <v>10.040958948044389</v>
+      </c>
+      <c r="Z29" s="14">
+        <v>3.3227938467567304</v>
+      </c>
+      <c r="AB29" s="33">
+        <f t="shared" si="9"/>
+        <v>9.4226303085204979</v>
+      </c>
+      <c r="AC29" s="15">
+        <f t="shared" si="10"/>
         <v>3.2284098730676218</v>
       </c>
-      <c r="P29" s="33">
-        <f t="shared" si="6"/>
-        <v>10.040958948044389</v>
-      </c>
-      <c r="Q29" s="14">
-        <f t="shared" si="7"/>
-        <v>3.3227938467567304</v>
-      </c>
-      <c r="S29" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T29" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="30" spans="2:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="30" spans="2:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H30">
         <v>890</v>
       </c>
@@ -5944,30 +6271,48 @@
       </c>
       <c r="M30" s="33">
         <f t="shared" si="4"/>
-        <v>9.3928947870910626</v>
+        <v>9.5789944136064609</v>
       </c>
       <c r="N30" s="15">
         <f t="shared" si="5"/>
+        <v>3.2525366121853971</v>
+      </c>
+      <c r="P30" s="33">
+        <f t="shared" si="11"/>
+        <v>8.9901334904343582</v>
+      </c>
+      <c r="Q30" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1607172430374657</v>
+      </c>
+      <c r="S30" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T30" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W30" s="14">
+        <f t="shared" si="8"/>
+        <v>3.4784752368375385</v>
+      </c>
+      <c r="Y30" s="33">
+        <v>9.9996853252198825</v>
+      </c>
+      <c r="Z30" s="14">
+        <v>3.3165773510080965</v>
+      </c>
+      <c r="AB30" s="33">
+        <f t="shared" si="9"/>
+        <v>9.3928947870910626</v>
+      </c>
+      <c r="AC30" s="15">
+        <f t="shared" si="10"/>
         <v>3.2238012946040988</v>
       </c>
-      <c r="P30" s="33">
-        <f t="shared" si="6"/>
-        <v>9.9996853252198825</v>
-      </c>
-      <c r="Q30" s="14">
-        <f t="shared" si="7"/>
-        <v>3.3165773510080965</v>
-      </c>
-      <c r="S30" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T30" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="2:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H31">
         <v>900</v>
       </c>
@@ -5989,30 +6334,48 @@
       </c>
       <c r="M31" s="33">
         <f t="shared" si="4"/>
-        <v>9.3644161831466892</v>
+        <v>9.5491090606382407</v>
       </c>
       <c r="N31" s="15">
         <f t="shared" si="5"/>
+        <v>3.2479392021154339</v>
+      </c>
+      <c r="P31" s="33">
+        <f t="shared" si="11"/>
+        <v>8.9660517649026321</v>
+      </c>
+      <c r="Q31" s="14">
+        <f t="shared" si="12"/>
+        <v>3.156905409558961</v>
+      </c>
+      <c r="S31" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T31" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W31" s="14">
+        <f t="shared" si="8"/>
+        <v>3.4666139558957547</v>
+      </c>
+      <c r="Y31" s="33">
+        <v>9.9603392806288547</v>
+      </c>
+      <c r="Z31" s="14">
+        <v>3.3106403127837454</v>
+      </c>
+      <c r="AB31" s="33">
+        <f t="shared" si="9"/>
+        <v>9.3644161831466892</v>
+      </c>
+      <c r="AC31" s="15">
+        <f t="shared" si="10"/>
         <v>3.2193813354659757</v>
       </c>
-      <c r="P31" s="33">
-        <f t="shared" si="6"/>
-        <v>9.9603392806288547</v>
-      </c>
-      <c r="Q31" s="14">
-        <f t="shared" si="7"/>
-        <v>3.3106403127837454</v>
-      </c>
-      <c r="S31" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T31" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="32" spans="2:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="32" spans="2:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H32">
         <v>910</v>
       </c>
@@ -6034,30 +6397,48 @@
       </c>
       <c r="M32" s="33">
         <f t="shared" si="4"/>
-        <v>9.3371195113389902</v>
+        <v>9.5204690077148602</v>
       </c>
       <c r="N32" s="15">
         <f t="shared" si="5"/>
+        <v>3.2435272478761235</v>
+      </c>
+      <c r="P32" s="33">
+        <f t="shared" si="11"/>
+        <v>8.9430018706605381</v>
+      </c>
+      <c r="Q32" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1532525859278286</v>
+      </c>
+      <c r="S32" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T32" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W32" s="14">
+        <f t="shared" si="8"/>
+        <v>3.4568079579128606</v>
+      </c>
+      <c r="Y32" s="33">
+        <v>9.9227880165795614</v>
+      </c>
+      <c r="Z32" s="14">
+        <v>3.3049641475482847</v>
+      </c>
+      <c r="AB32" s="33">
+        <f t="shared" si="9"/>
+        <v>9.3371195113389902</v>
+      </c>
+      <c r="AC32" s="15">
+        <f t="shared" si="10"/>
         <v>3.2151391122841</v>
       </c>
-      <c r="P32" s="33">
-        <f t="shared" si="6"/>
-        <v>9.9227880165795614</v>
-      </c>
-      <c r="Q32" s="14">
-        <f t="shared" si="7"/>
-        <v>3.3049641475482847</v>
-      </c>
-      <c r="S32" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T32" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="33" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="8:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H33">
         <v>920</v>
       </c>
@@ -6079,30 +6460,48 @@
       </c>
       <c r="M33" s="33">
         <f t="shared" si="4"/>
-        <v>9.3109357034231213</v>
+        <v>9.4930011612386362</v>
       </c>
       <c r="N33" s="15">
         <f t="shared" si="5"/>
+        <v>3.2392902249163531</v>
+      </c>
+      <c r="P33" s="33">
+        <f t="shared" si="11"/>
+        <v>8.9209192822552446</v>
+      </c>
+      <c r="Q33" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1497490824278755</v>
+      </c>
+      <c r="S33" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T33" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W33" s="14">
+        <f t="shared" si="8"/>
+        <v>3.4482378576278765</v>
+      </c>
+      <c r="Y33" s="33">
+        <v>9.8869113981365047</v>
+      </c>
+      <c r="Z33" s="14">
+        <v>3.2995319968347792</v>
+      </c>
+      <c r="AB33" s="33">
+        <f t="shared" si="9"/>
+        <v>9.3109357034231213</v>
+      </c>
+      <c r="AC33" s="15">
+        <f t="shared" si="10"/>
         <v>3.2110645747825006</v>
       </c>
-      <c r="P33" s="33">
-        <f t="shared" si="6"/>
-        <v>9.8869113981365047</v>
-      </c>
-      <c r="Q33" s="14">
-        <f t="shared" si="7"/>
-        <v>3.2995319968347792</v>
-      </c>
-      <c r="S33" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T33" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="34" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="34" spans="8:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H34">
         <v>930</v>
       </c>
@@ -6124,30 +6523,48 @@
       </c>
       <c r="M34" s="33">
         <f t="shared" si="4"/>
-        <v>9.2858010171789083</v>
+        <v>9.4666380888906545</v>
       </c>
       <c r="N34" s="15">
         <f t="shared" si="5"/>
+        <v>3.2352183989478447</v>
+      </c>
+      <c r="P34" s="33">
+        <f t="shared" si="11"/>
+        <v>8.8997450584636972</v>
+      </c>
+      <c r="Q34" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1463860313800813</v>
+      </c>
+      <c r="S34" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T34" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W34" s="14">
+        <f t="shared" si="8"/>
+        <v>3.440528720738731</v>
+      </c>
+      <c r="Y34" s="33">
+        <v>9.8526003656081098</v>
+      </c>
+      <c r="Z34" s="14">
+        <v>3.2943285151314385</v>
+      </c>
+      <c r="AB34" s="33">
+        <f t="shared" si="9"/>
+        <v>9.2858010171789083</v>
+      </c>
+      <c r="AC34" s="15">
+        <f t="shared" si="10"/>
         <v>3.2071484245633082</v>
       </c>
-      <c r="P34" s="33">
-        <f t="shared" si="6"/>
-        <v>9.8526003656081098</v>
-      </c>
-      <c r="Q34" s="14">
-        <f t="shared" si="7"/>
-        <v>3.2943285151314385</v>
-      </c>
-      <c r="S34" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T34" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="35" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="8:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H35">
         <v>940</v>
       </c>
@@ -6169,30 +6586,48 @@
       </c>
       <c r="M35" s="33">
         <f t="shared" si="4"/>
-        <v>9.2616565175723302</v>
+        <v>9.4413174659261276</v>
       </c>
       <c r="N35" s="15">
         <f t="shared" si="5"/>
+        <v>3.2313027505831342</v>
+      </c>
+      <c r="P35" s="33">
+        <f t="shared" si="11"/>
+        <v>8.8794252006507559</v>
+      </c>
+      <c r="Q35" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1431552937535168</v>
+      </c>
+      <c r="S35" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T35" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W35" s="14">
+        <f t="shared" si="8"/>
+        <v>3.4334728611191867</v>
+      </c>
+      <c r="Y35" s="33">
+        <v>9.8197555965400678</v>
+      </c>
+      <c r="Z35" s="14">
+        <v>3.2893396900502792</v>
+      </c>
+      <c r="AB35" s="33">
+        <f t="shared" si="9"/>
+        <v>9.2616565175723302</v>
+      </c>
+      <c r="AC35" s="15">
+        <f t="shared" si="10"/>
         <v>3.20338204364892</v>
       </c>
-      <c r="P35" s="33">
-        <f t="shared" si="6"/>
-        <v>9.8197555965400678</v>
-      </c>
-      <c r="Q35" s="14">
-        <f t="shared" si="7"/>
-        <v>3.2893396900502792</v>
-      </c>
-      <c r="S35" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T35" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="36" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="36" spans="8:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H36">
         <v>950</v>
       </c>
@@ -6214,30 +6649,48 @@
       </c>
       <c r="M36" s="33">
         <f t="shared" si="4"/>
-        <v>9.2384476196616028</v>
+        <v>9.4169815875837219</v>
       </c>
       <c r="N36" s="15">
         <f t="shared" si="5"/>
+        <v>3.2275349088094649</v>
+      </c>
+      <c r="P36" s="33">
+        <f t="shared" si="11"/>
+        <v>8.8599101049129043</v>
+      </c>
+      <c r="Q36" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1400493793749336</v>
+      </c>
+      <c r="S36" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T36" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W36" s="14">
+        <f t="shared" si="8"/>
+        <v>3.4269406686402832</v>
+      </c>
+      <c r="Y36" s="33">
+        <v>9.7882863701149745</v>
+      </c>
+      <c r="Z36" s="14">
+        <v>3.2845526895020232</v>
+      </c>
+      <c r="AB36" s="33">
+        <f t="shared" si="9"/>
+        <v>9.2384476196616028</v>
+      </c>
+      <c r="AC36" s="15">
+        <f t="shared" si="10"/>
         <v>3.199757431378448</v>
       </c>
-      <c r="P36" s="33">
-        <f t="shared" si="6"/>
-        <v>9.7882863701149745</v>
-      </c>
-      <c r="Q36" s="14">
-        <f t="shared" si="7"/>
-        <v>3.2845526895020232</v>
-      </c>
-      <c r="S36" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T36" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="37" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="8:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H37">
         <v>960</v>
       </c>
@@ -6259,30 +6712,48 @@
       </c>
       <c r="M37" s="33">
         <f t="shared" si="4"/>
-        <v>9.2161236845200332</v>
+        <v>9.3935769382393133</v>
       </c>
       <c r="N37" s="15">
         <f t="shared" si="5"/>
+        <v>3.2239070920607054</v>
+      </c>
+      <c r="P37" s="33">
+        <f t="shared" si="11"/>
+        <v>8.8411540913117772</v>
+      </c>
+      <c r="Q37" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1370613783143897</v>
+      </c>
+      <c r="S37" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T37" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W37" s="14">
+        <f t="shared" si="8"/>
+        <v>3.4208443291718429</v>
+      </c>
+      <c r="Y37" s="33">
+        <v>9.7581095971647276</v>
+      </c>
+      <c r="Z37" s="14">
+        <v>3.2799557309763689</v>
+      </c>
+      <c r="AB37" s="33">
+        <f t="shared" si="9"/>
+        <v>9.2161236845200332</v>
+      </c>
+      <c r="AC37" s="15">
+        <f t="shared" si="10"/>
         <v>3.1962671484905689</v>
       </c>
-      <c r="P37" s="33">
-        <f t="shared" si="6"/>
-        <v>9.7581095971647276</v>
-      </c>
-      <c r="Q37" s="14">
-        <f t="shared" si="7"/>
-        <v>3.2799557309763689</v>
-      </c>
-      <c r="S37" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T37" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="38" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="38" spans="8:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H38">
         <v>970</v>
       </c>
@@ -6304,30 +6775,48 @@
       </c>
       <c r="M38" s="33">
         <f t="shared" si="4"/>
-        <v>9.1946376608781222</v>
+        <v>9.3710538094727305</v>
       </c>
       <c r="N38" s="15">
         <f t="shared" si="5"/>
+        <v>3.220412055851352</v>
+      </c>
+      <c r="P38" s="33">
+        <f t="shared" si="11"/>
+        <v>8.8231149969834863</v>
+      </c>
+      <c r="Q38" s="14">
+        <f t="shared" si="12"/>
+        <v>3.134184901530777</v>
+      </c>
+      <c r="S38" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T38" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W38" s="14">
+        <f t="shared" si="8"/>
+        <v>3.4151206595110382</v>
+      </c>
+      <c r="Y38" s="33">
+        <v>9.7291489867653222</v>
+      </c>
+      <c r="Z38" s="14">
+        <v>3.2755379690617725</v>
+      </c>
+      <c r="AB38" s="33">
+        <f t="shared" si="9"/>
+        <v>9.1946376608781222</v>
+      </c>
+      <c r="AC38" s="15">
+        <f t="shared" si="10"/>
         <v>3.1929042674151886</v>
       </c>
-      <c r="P38" s="33">
-        <f t="shared" si="6"/>
-        <v>9.7291489867653222</v>
-      </c>
-      <c r="Q38" s="14">
-        <f t="shared" si="7"/>
-        <v>3.2755379690617725</v>
-      </c>
-      <c r="S38" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T38" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="39" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="39" spans="8:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H39">
         <v>980</v>
       </c>
@@ -6349,30 +6838,48 @@
       </c>
       <c r="M39" s="33">
         <f t="shared" si="4"/>
-        <v>9.1739457663513377</v>
+        <v>9.3493659604679014</v>
       </c>
       <c r="N39" s="15">
         <f t="shared" si="5"/>
+        <v>3.2170430461011712</v>
+      </c>
+      <c r="P39" s="33">
+        <f t="shared" si="11"/>
+        <v>8.8057538225671976</v>
+      </c>
+      <c r="Q39" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1314140292473618</v>
+      </c>
+      <c r="S39" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T39" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W39" s="14">
+        <f t="shared" si="8"/>
+        <v>3.4097220709221849</v>
+      </c>
+      <c r="Y39" s="33">
+        <v>9.7013343262971112</v>
+      </c>
+      <c r="Z39" s="14">
+        <v>3.2712893981268474</v>
+      </c>
+      <c r="AB39" s="33">
+        <f t="shared" si="9"/>
+        <v>9.1739457663513377</v>
+      </c>
+      <c r="AC39" s="15">
+        <f t="shared" si="10"/>
         <v>3.1896623279512424</v>
       </c>
-      <c r="P39" s="33">
-        <f t="shared" si="6"/>
-        <v>9.7013343262971112</v>
-      </c>
-      <c r="Q39" s="14">
-        <f t="shared" si="7"/>
-        <v>3.2712893981268474</v>
-      </c>
-      <c r="S39" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T39" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="40" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="8:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H40">
         <v>990</v>
       </c>
@@ -6394,30 +6901,48 @@
       </c>
       <c r="M40" s="33">
         <f t="shared" si="4"/>
-        <v>9.1540072030734123</v>
+        <v>9.3284703151913373</v>
       </c>
       <c r="N40" s="15">
         <f t="shared" si="5"/>
+        <v>3.2137937574137108</v>
+      </c>
+      <c r="P40" s="33">
+        <f t="shared" si="11"/>
+        <v>8.7890344234456297</v>
+      </c>
+      <c r="Q40" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1287432658250549</v>
+      </c>
+      <c r="S40" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T40" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W40" s="14">
+        <f t="shared" si="8"/>
+        <v>3.4046114146541706</v>
+      </c>
+      <c r="Y40" s="33">
+        <v>9.6746008564046591</v>
+      </c>
+      <c r="Z40" s="14">
+        <v>3.2672007676916119</v>
+      </c>
+      <c r="AB40" s="33">
+        <f t="shared" si="9"/>
+        <v>9.1540072030734123</v>
+      </c>
+      <c r="AC40" s="15">
+        <f t="shared" si="10"/>
         <v>3.1865352976349426</v>
       </c>
-      <c r="P40" s="33">
-        <f t="shared" si="6"/>
-        <v>9.6746008564046591</v>
-      </c>
-      <c r="Q40" s="14">
-        <f t="shared" si="7"/>
-        <v>3.2672007676916119</v>
-      </c>
-      <c r="S40" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T40" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="41" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="41" spans="8:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H41">
         <v>1000</v>
       </c>
@@ -6439,30 +6964,48 @@
       </c>
       <c r="M41" s="33">
         <f t="shared" si="4"/>
-        <v>9.1347839033400025</v>
+        <v>9.3083266916376868</v>
       </c>
       <c r="N41" s="15">
         <f t="shared" si="5"/>
+        <v>3.2106582956829408</v>
+      </c>
+      <c r="P41" s="33">
+        <f t="shared" si="11"/>
+        <v>8.7729232388861949</v>
+      </c>
+      <c r="Q41" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1261675001327416</v>
+      </c>
+      <c r="S41" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T41" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W41" s="14">
+        <f t="shared" si="8"/>
+        <v>3.3997588512362804</v>
+      </c>
+      <c r="Y41" s="33">
+        <v>9.6488887258266534</v>
+      </c>
+      <c r="Z41" s="14">
+        <v>3.2632635084875776</v>
+      </c>
+      <c r="AB41" s="33">
+        <f t="shared" si="9"/>
+        <v>9.1347839033400025</v>
+      </c>
+      <c r="AC41" s="15">
+        <f t="shared" si="10"/>
         <v>3.1835175362073951</v>
       </c>
-      <c r="P41" s="33">
-        <f t="shared" si="6"/>
-        <v>9.6488887258266534</v>
-      </c>
-      <c r="Q41" s="14">
-        <f t="shared" si="7"/>
-        <v>3.2632635084875776</v>
-      </c>
-      <c r="S41" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T41" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="42" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="8:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H42">
         <v>1010</v>
       </c>
@@ -6484,30 +7027,48 @@
       </c>
       <c r="M42" s="33">
         <f t="shared" si="4"/>
-        <v>9.1162403015174878</v>
+        <v>9.2888975591291505</v>
       </c>
       <c r="N42" s="15">
         <f t="shared" si="5"/>
+        <v>3.2076311444941967</v>
+      </c>
+      <c r="P42" s="33">
+        <f t="shared" si="11"/>
+        <v>8.7573890534256194</v>
+      </c>
+      <c r="Q42" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1236819705958574</v>
+      </c>
+      <c r="S42" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T42" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W42" s="14">
+        <f t="shared" si="8"/>
+        <v>3.3951398501112386</v>
+      </c>
+      <c r="Y42" s="33">
+        <v>9.6241425138388372</v>
+      </c>
+      <c r="Z42" s="14">
+        <v>3.2594696675745944</v>
+      </c>
+      <c r="AB42" s="33">
+        <f t="shared" si="9"/>
+        <v>9.1162403015174878</v>
+      </c>
+      <c r="AC42" s="15">
+        <f t="shared" si="10"/>
         <v>3.1806037636771869</v>
       </c>
-      <c r="P42" s="33">
-        <f t="shared" si="6"/>
-        <v>9.6241425138388372</v>
-      </c>
-      <c r="Q42" s="14">
-        <f t="shared" si="7"/>
-        <v>3.2594696675745944</v>
-      </c>
-      <c r="S42" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T42" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="43" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="43" spans="8:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H43">
         <v>1020</v>
       </c>
@@ -6529,30 +7090,48 @@
       </c>
       <c r="M43" s="33">
         <f t="shared" si="4"/>
-        <v>9.0983431290125729</v>
+        <v>9.2701478202364438</v>
       </c>
       <c r="N43" s="15">
         <f t="shared" si="5"/>
+        <v>3.2047071348621614</v>
+      </c>
+      <c r="P43" s="33">
+        <f t="shared" si="11"/>
+        <v>8.7424027858350311</v>
+      </c>
+      <c r="Q43" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1212822342484556</v>
+      </c>
+      <c r="S43" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T43" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W43" s="14">
+        <f t="shared" si="8"/>
+        <v>3.3907338568346166</v>
+      </c>
+      <c r="Y43" s="33">
+        <v>9.6003108102449897</v>
+      </c>
+      <c r="Z43" s="14">
+        <v>3.2558118511739877</v>
+      </c>
+      <c r="AB43" s="33">
+        <f t="shared" si="9"/>
+        <v>9.0983431290125729</v>
+      </c>
+      <c r="AC43" s="15">
+        <f t="shared" si="10"/>
         <v>3.1777890315457653</v>
       </c>
-      <c r="P43" s="33">
-        <f t="shared" si="6"/>
-        <v>9.6003108102449897</v>
-      </c>
-      <c r="Q43" s="14">
-        <f t="shared" si="7"/>
-        <v>3.2558118511739877</v>
-      </c>
-      <c r="S43" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T43" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="44" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="44" spans="8:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H44">
         <v>1030</v>
       </c>
@@ -6574,30 +7153,48 @@
       </c>
       <c r="M44" s="33">
         <f t="shared" si="4"/>
-        <v>9.0810612295503947</v>
+        <v>9.2520446143742738</v>
       </c>
       <c r="N44" s="15">
         <f t="shared" si="5"/>
+        <v>3.2018814179126425</v>
+      </c>
+      <c r="P44" s="33">
+        <f t="shared" si="11"/>
+        <v>8.7279373017966613</v>
+      </c>
+      <c r="Q44" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1189641392290262</v>
+      </c>
+      <c r="S44" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T44" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W44" s="14">
+        <f t="shared" si="8"/>
+        <v>3.3865233731938886</v>
+      </c>
+      <c r="Y44" s="33">
+        <v>9.5773458445974562</v>
+      </c>
+      <c r="Z44" s="14">
+        <v>3.2522831741097602</v>
+      </c>
+      <c r="AB44" s="33">
+        <f t="shared" si="9"/>
+        <v>9.0810612295503947</v>
+      </c>
+      <c r="AC44" s="15">
+        <f t="shared" si="10"/>
         <v>3.1750686968238018</v>
       </c>
-      <c r="P44" s="33">
-        <f t="shared" si="6"/>
-        <v>9.5773458445974562</v>
-      </c>
-      <c r="Q44" s="14">
-        <f t="shared" si="7"/>
-        <v>3.2522831741097602</v>
-      </c>
-      <c r="S44" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T44" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="45" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="45" spans="8:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H45">
         <v>1040</v>
       </c>
@@ -6619,30 +7216,48 @@
       </c>
       <c r="M45" s="33">
         <f t="shared" si="4"/>
-        <v>9.0643653923886465</v>
+        <v>9.2345571405319333</v>
       </c>
       <c r="N45" s="15">
         <f t="shared" si="5"/>
+        <v>3.1991494401687355</v>
+      </c>
+      <c r="P45" s="33">
+        <f t="shared" si="11"/>
+        <v>8.7139672470625094</v>
+      </c>
+      <c r="Q45" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1167238002528408</v>
+      </c>
+      <c r="S45" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T45" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W45" s="14">
+        <f t="shared" si="8"/>
+        <v>3.3824933029012083</v>
+      </c>
+      <c r="Y45" s="33">
+        <v>9.5552031577307801</v>
+      </c>
+      <c r="Z45" s="14">
+        <v>3.2488772149360741</v>
+      </c>
+      <c r="AB45" s="33">
+        <f t="shared" si="9"/>
+        <v>9.0643653923886465</v>
+      </c>
+      <c r="AC45" s="15">
+        <f t="shared" si="10"/>
         <v>3.1724383985175577</v>
       </c>
-      <c r="P45" s="33">
-        <f t="shared" si="6"/>
-        <v>9.5552031577307801</v>
-      </c>
-      <c r="Q45" s="14">
-        <f t="shared" si="7"/>
-        <v>3.2488772149360741</v>
-      </c>
-      <c r="S45" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T45" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="46" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="46" spans="8:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H46">
         <v>1050</v>
       </c>
@@ -6664,30 +7279,48 @@
       </c>
       <c r="M46" s="33">
         <f t="shared" si="4"/>
-        <v>9.0482282014153732</v>
+        <v>9.2176564969430395</v>
       </c>
       <c r="N46" s="15">
         <f t="shared" si="5"/>
+        <v>3.1965069211473702</v>
+      </c>
+      <c r="P46" s="33">
+        <f t="shared" si="11"/>
+        <v>8.700468898383491</v>
+      </c>
+      <c r="Q46" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1145575766685534</v>
+      </c>
+      <c r="S46" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T46" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W46" s="14">
+        <f t="shared" si="8"/>
+        <v>3.3786304738993094</v>
+      </c>
+      <c r="Y46" s="33">
+        <v>9.5338413098249557</v>
+      </c>
+      <c r="Z46" s="14">
+        <v>3.2455879759798463</v>
+      </c>
+      <c r="AB46" s="33">
+        <f t="shared" si="9"/>
+        <v>9.0482282014153732</v>
+      </c>
+      <c r="AC46" s="15">
+        <f t="shared" si="10"/>
         <v>3.1698940363071086</v>
       </c>
-      <c r="P46" s="33">
-        <f t="shared" si="6"/>
-        <v>9.5338413098249557</v>
-      </c>
-      <c r="Q46" s="14">
-        <f t="shared" si="7"/>
-        <v>3.2455879759798463</v>
-      </c>
-      <c r="S46" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T46" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="47" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="47" spans="8:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H47">
         <v>1060</v>
       </c>
@@ -6709,30 +7342,48 @@
       </c>
       <c r="M47" s="33">
         <f t="shared" si="4"/>
-        <v>9.032623898349323</v>
+        <v>9.2013155357894565</v>
       </c>
       <c r="N47" s="15">
         <f t="shared" si="5"/>
+        <v>3.193949833010759</v>
+      </c>
+      <c r="P47" s="33">
+        <f t="shared" si="11"/>
+        <v>8.6874200299203643</v>
+      </c>
+      <c r="Q47" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1124620527679312</v>
+      </c>
+      <c r="S47" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T47" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W47" s="14">
+        <f t="shared" si="8"/>
+        <v>3.3749232815752146</v>
+      </c>
+      <c r="Y47" s="33">
+        <v>9.5132216201366315</v>
+      </c>
+      <c r="Z47" s="14">
+        <v>3.242409847649836</v>
+      </c>
+      <c r="AB47" s="33">
+        <f t="shared" si="9"/>
+        <v>9.032623898349323</v>
+      </c>
+      <c r="AC47" s="15">
+        <f t="shared" si="10"/>
         <v>3.1674317511746519</v>
       </c>
-      <c r="P47" s="33">
-        <f t="shared" si="6"/>
-        <v>9.5132216201366315</v>
-      </c>
-      <c r="Q47" s="14">
-        <f t="shared" si="7"/>
-        <v>3.242409847649836</v>
-      </c>
-      <c r="S47" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T47" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="48" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="48" spans="8:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H48">
         <v>1070</v>
       </c>
@@ -6754,30 +7405,48 @@
       </c>
       <c r="M48" s="33">
         <f t="shared" si="4"/>
-        <v>9.0175282584922645</v>
+        <v>9.1855087312813843</v>
       </c>
       <c r="N48" s="15">
         <f t="shared" si="5"/>
+        <v>3.1914743820499929</v>
+      </c>
+      <c r="P48" s="33">
+        <f t="shared" si="11"/>
+        <v>8.6747997931947243</v>
+      </c>
+      <c r="Q48" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1104340200677338</v>
+      </c>
+      <c r="S48" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T48" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W48" s="14">
+        <f t="shared" si="8"/>
+        <v>3.3713614168774866</v>
+      </c>
+      <c r="Y48" s="33">
+        <v>9.4933079342909039</v>
+      </c>
+      <c r="Z48" s="14">
+        <v>3.2393375764638832</v>
+      </c>
+      <c r="AB48" s="33">
+        <f t="shared" si="9"/>
+        <v>9.0175282584922645</v>
+      </c>
+      <c r="AC48" s="15">
+        <f t="shared" si="10"/>
         <v>3.1650479077720552</v>
       </c>
-      <c r="P48" s="33">
-        <f t="shared" si="6"/>
-        <v>9.4933079342909039</v>
-      </c>
-      <c r="Q48" s="14">
-        <f t="shared" si="7"/>
-        <v>3.2393375764638832</v>
-      </c>
-      <c r="S48" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T48" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="49" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="49" spans="8:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H49">
         <v>1080</v>
       </c>
@@ -6799,30 +7468,48 @@
       </c>
       <c r="M49" s="33">
         <f t="shared" si="4"/>
-        <v>9.0029184776793176</v>
+        <v>9.1702120596666337</v>
       </c>
       <c r="N49" s="15">
         <f t="shared" si="5"/>
+        <v>3.1890769918060355</v>
+      </c>
+      <c r="P49" s="33">
+        <f t="shared" si="11"/>
+        <v>8.6625886089250663</v>
+      </c>
+      <c r="Q49" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1084704613241971</v>
+      </c>
+      <c r="S49" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T49" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W49" s="14">
+        <f t="shared" si="8"/>
+        <v>3.367935655410105</v>
+      </c>
+      <c r="Y49" s="33">
+        <v>9.4740664156473553</v>
+      </c>
+      <c r="Z49" s="14">
+        <v>3.2363662363285393</v>
+      </c>
+      <c r="AB49" s="33">
+        <f t="shared" si="9"/>
+        <v>9.0029184776793176</v>
+      </c>
+      <c r="AC49" s="15">
+        <f t="shared" si="10"/>
         <v>3.1627390783432197</v>
       </c>
-      <c r="P49" s="33">
-        <f t="shared" si="6"/>
-        <v>9.4740664156473553</v>
-      </c>
-      <c r="Q49" s="14">
-        <f t="shared" si="7"/>
-        <v>3.2363662363285393</v>
-      </c>
-      <c r="S49" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T49" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="50" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="50" spans="8:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H50">
         <v>1090</v>
       </c>
@@ -6844,30 +7531,48 @@
       </c>
       <c r="M50" s="33">
         <f t="shared" si="4"/>
-        <v>8.9887730692417218</v>
+        <v>9.1554028899022715</v>
       </c>
       <c r="N50" s="15">
         <f t="shared" si="5"/>
+        <v>3.1867542876573136</v>
+      </c>
+      <c r="P50" s="33">
+        <f t="shared" si="11"/>
+        <v>8.6507680693308622</v>
+      </c>
+      <c r="Q50" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1065685360749509</v>
+      </c>
+      <c r="S50" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T50" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W50" s="14">
+        <f t="shared" si="8"/>
+        <v>3.3646376912057239</v>
+      </c>
+      <c r="Y50" s="33">
+        <v>9.4554653577679009</v>
+      </c>
+      <c r="Z50" s="14">
+        <v>3.233491202673652</v>
+      </c>
+      <c r="AB50" s="33">
+        <f t="shared" si="9"/>
+        <v>8.9887730692417218</v>
+      </c>
+      <c r="AC50" s="15">
+        <f t="shared" si="10"/>
         <v>3.1605020280394887</v>
       </c>
-      <c r="P50" s="33">
-        <f t="shared" si="6"/>
-        <v>9.4554653577679009</v>
-      </c>
-      <c r="Q50" s="14">
-        <f t="shared" si="7"/>
-        <v>3.233491202673652</v>
-      </c>
-      <c r="S50" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T50" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="51" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="51" spans="8:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H51">
         <v>1100</v>
       </c>
@@ -6889,30 +7594,48 @@
       </c>
       <c r="M51" s="33">
         <f t="shared" si="4"/>
-        <v>8.9750717699411684</v>
+        <v>9.1410598838769328</v>
       </c>
       <c r="N51" s="15">
         <f t="shared" si="5"/>
+        <v>3.1845030827237291</v>
+      </c>
+      <c r="P51" s="33">
+        <f t="shared" si="11"/>
+        <v>8.6393208496862677</v>
+      </c>
+      <c r="Q51" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1047255675318981</v>
+      </c>
+      <c r="S51" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T51" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W51" s="14">
+        <f t="shared" si="8"/>
+        <v>3.3614600038311768</v>
+      </c>
+      <c r="Y51" s="33">
+        <v>9.4374750154416258</v>
+      </c>
+      <c r="Z51" s="14">
+        <v>3.2307081291013624</v>
+      </c>
+      <c r="AB51" s="33">
+        <f t="shared" si="9"/>
+        <v>8.9750717699411684</v>
+      </c>
+      <c r="AC51" s="15">
+        <f t="shared" si="10"/>
         <v>3.1583337014858275</v>
       </c>
-      <c r="P51" s="33">
-        <f t="shared" si="6"/>
-        <v>9.4374750154416258</v>
-      </c>
-      <c r="Q51" s="14">
-        <f t="shared" si="7"/>
-        <v>3.2307081291013624</v>
-      </c>
-      <c r="S51" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T51" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="52" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="52" spans="8:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H52">
         <v>1110</v>
       </c>
@@ -6934,30 +7657,48 @@
       </c>
       <c r="M52" s="33">
         <f t="shared" si="4"/>
-        <v>8.9617954539593274</v>
+        <v>9.1271629052054717</v>
       </c>
       <c r="N52" s="15">
         <f t="shared" si="5"/>
+        <v>3.1823203649547089</v>
+      </c>
+      <c r="P52" s="33">
+        <f t="shared" si="11"/>
+        <v>8.6282306280717052</v>
+      </c>
+      <c r="Q52" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1029390306726468</v>
+      </c>
+      <c r="S52" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T52" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W52" s="14">
+        <f t="shared" si="8"/>
+        <v>3.358395750767063</v>
+      </c>
+      <c r="Y52" s="33">
+        <v>9.420067452079131</v>
+      </c>
+      <c r="Z52" s="14">
+        <v>3.228012926256512</v>
+      </c>
+      <c r="AB52" s="33">
+        <f t="shared" si="9"/>
+        <v>8.9617954539593274</v>
+      </c>
+      <c r="AC52" s="15">
+        <f t="shared" si="10"/>
         <v>3.1562312104722823</v>
       </c>
-      <c r="P52" s="33">
-        <f t="shared" si="6"/>
-        <v>9.420067452079131</v>
-      </c>
-      <c r="Q52" s="14">
-        <f t="shared" si="7"/>
-        <v>3.228012926256512</v>
-      </c>
-      <c r="S52" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T52" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="53" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="53" spans="8:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H53">
         <v>1120</v>
       </c>
@@ -6979,30 +7720,48 @@
       </c>
       <c r="M53" s="33">
         <f t="shared" si="4"/>
-        <v>8.9489260541341071</v>
+        <v>9.1136929357328675</v>
       </c>
       <c r="N53" s="15">
         <f t="shared" si="5"/>
+        <v>3.1802032852842705</v>
+      </c>
+      <c r="P53" s="33">
+        <f t="shared" si="11"/>
+        <v>8.6174820124120615</v>
+      </c>
+      <c r="Q53" s="14">
+        <f t="shared" si="12"/>
+        <v>3.1012065413983736</v>
+      </c>
+      <c r="S53" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T53" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W53" s="14">
+        <f t="shared" si="8"/>
+        <v>3.3554386792357671</v>
+      </c>
+      <c r="Y53" s="33">
+        <v>9.4032164015891038</v>
+      </c>
+      <c r="Z53" s="14">
+        <v>3.225401742665416</v>
+      </c>
+      <c r="AB53" s="33">
+        <f t="shared" si="9"/>
+        <v>8.9489260541341071</v>
+      </c>
+      <c r="AC53" s="15">
+        <f t="shared" si="10"/>
         <v>3.1541918226598247</v>
       </c>
-      <c r="P53" s="33">
-        <f t="shared" si="6"/>
-        <v>9.4032164015891038</v>
-      </c>
-      <c r="Q53" s="14">
-        <f t="shared" si="7"/>
-        <v>3.225401742665416</v>
-      </c>
-      <c r="S53" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T53" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="54" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="54" spans="8:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H54">
         <v>1130</v>
       </c>
@@ -7024,30 +7783,48 @@
       </c>
       <c r="M54" s="33">
         <f t="shared" si="4"/>
-        <v>8.9364464897273361</v>
+        <v>9.1006319989844027</v>
       </c>
       <c r="N54" s="15">
         <f t="shared" si="5"/>
+        <v>3.1781491467494729</v>
+      </c>
+      <c r="P54" s="33">
+        <f t="shared" si="11"/>
+        <v>8.6070604740089998</v>
+      </c>
+      <c r="Q54" s="14">
+        <f t="shared" si="12"/>
+        <v>3.0995258466431603</v>
+      </c>
+      <c r="S54" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T54" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W54" s="14">
+        <f t="shared" si="8"/>
+        <v>3.3525830531973764</v>
+      </c>
+      <c r="Y54" s="33">
+        <v>9.3868971431030523</v>
+      </c>
+      <c r="Z54" s="14">
+        <v>3.222870947323683</v>
+      </c>
+      <c r="AB54" s="33">
+        <f t="shared" si="9"/>
+        <v>8.9364464897273361</v>
+      </c>
+      <c r="AC54" s="15">
+        <f t="shared" si="10"/>
         <v>3.1522129512022716</v>
       </c>
-      <c r="P54" s="33">
-        <f t="shared" si="6"/>
-        <v>9.3868971431030523</v>
-      </c>
-      <c r="Q54" s="14">
-        <f t="shared" si="7"/>
-        <v>3.222870947323683</v>
-      </c>
-      <c r="S54" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T54" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="55" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="55" spans="8:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H55">
         <v>1140</v>
       </c>
@@ -7069,30 +7846,48 @@
       </c>
       <c r="M55" s="33">
         <f t="shared" si="4"/>
-        <v>8.9243406000899448</v>
+        <v>9.0879630898857169</v>
       </c>
       <c r="N55" s="15">
         <f t="shared" si="5"/>
+        <v>3.1761553944802068</v>
+      </c>
+      <c r="P55" s="33">
+        <f t="shared" si="11"/>
+        <v>8.596952286876105</v>
+      </c>
+      <c r="Q55" s="14">
+        <f t="shared" si="12"/>
+        <v>3.0978948153344561</v>
+      </c>
+      <c r="S55" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T55" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W55" s="14">
+        <f t="shared" si="8"/>
+        <v>3.3498235923212505</v>
+      </c>
+      <c r="Y55" s="33">
+        <v>9.3710863871284804</v>
+      </c>
+      <c r="Z55" s="14">
+        <v>3.2204171138423172</v>
+      </c>
+      <c r="AB55" s="33">
+        <f t="shared" si="9"/>
+        <v>8.9243406000899448</v>
+      </c>
+      <c r="AC55" s="15">
+        <f t="shared" si="10"/>
         <v>3.1502921451970045</v>
       </c>
-      <c r="P55" s="33">
-        <f t="shared" si="6"/>
-        <v>9.3710863871284804</v>
-      </c>
-      <c r="Q55" s="14">
-        <f t="shared" si="7"/>
-        <v>3.2204171138423172</v>
-      </c>
-      <c r="S55" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T55" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="56" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="56" spans="8:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H56">
         <v>1150</v>
       </c>
@@ -7114,30 +7909,48 @@
       </c>
       <c r="M56" s="33">
         <f t="shared" si="4"/>
-        <v>8.9125930836612905</v>
+        <v>9.0756701101522061</v>
       </c>
       <c r="N56" s="15">
         <f t="shared" si="5"/>
+        <v>3.17421960647845</v>
+      </c>
+      <c r="P56" s="33">
+        <f t="shared" si="11"/>
+        <v>8.5871444722716337</v>
+      </c>
+      <c r="Q56" s="14">
+        <f t="shared" si="12"/>
+        <v>3.0963114301167498</v>
+      </c>
+      <c r="S56" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T56" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W56" s="14">
+        <f t="shared" si="8"/>
+        <v>3.3471554205200267</v>
+      </c>
+      <c r="Y56" s="33">
+        <v>9.3557621718932324</v>
+      </c>
+      <c r="Z56" s="14">
+        <v>3.2180370059856727</v>
+      </c>
+      <c r="AB56" s="33">
+        <f t="shared" si="9"/>
+        <v>8.9125930836612905</v>
+      </c>
+      <c r="AC56" s="15">
+        <f t="shared" si="10"/>
         <v>3.1484270808867865</v>
       </c>
-      <c r="P56" s="33">
-        <f t="shared" si="6"/>
-        <v>9.3557621718932324</v>
-      </c>
-      <c r="Q56" s="14">
-        <f t="shared" si="7"/>
-        <v>3.2180370059856727</v>
-      </c>
-      <c r="S56" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T56" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="57" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="57" spans="8:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H57">
         <v>1160</v>
       </c>
@@ -7159,30 +7972,48 @@
       </c>
       <c r="M57" s="33">
         <f t="shared" si="4"/>
-        <v>8.9011894418011615</v>
+        <v>9.0637378088131513</v>
       </c>
       <c r="N57" s="15">
         <f t="shared" si="5"/>
+        <v>3.1723394851139672</v>
+      </c>
+      <c r="P57" s="33">
+        <f t="shared" si="11"/>
+        <v>8.5776247478976888</v>
+      </c>
+      <c r="Q57" s="14">
+        <f t="shared" si="12"/>
+        <v>3.0947737797612427</v>
+      </c>
+      <c r="S57" s="33" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="T57" s="14" t="e">
+        <f t="shared" si="7"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="W57" s="14">
+        <f t="shared" si="8"/>
+        <v>3.3445740221987621</v>
+      </c>
+      <c r="Y57" s="33">
+        <v>9.3409037687992882</v>
+      </c>
+      <c r="Z57" s="14">
+        <v>3.2157275644555599</v>
+      </c>
+      <c r="AB57" s="33">
+        <f t="shared" si="9"/>
+        <v>8.9011894418011615</v>
+      </c>
+      <c r="AC57" s="15">
+        <f t="shared" si="10"/>
         <v>3.1466155535433877</v>
       </c>
-      <c r="P57" s="33">
-        <f t="shared" si="6"/>
-        <v>9.3409037687992882</v>
-      </c>
-      <c r="Q57" s="14">
-        <f t="shared" si="7"/>
-        <v>3.2157275644555599</v>
-      </c>
-      <c r="S57" s="33" t="e">
-        <f t="shared" si="8"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="T57" s="14" t="e">
-        <f t="shared" si="9"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="58" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="58" spans="8:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H58">
         <v>1170</v>
       </c>
@@ -7204,30 +8035,48 @@
       </c>
       <c r="M58" s="33">
         <f t="shared" si="4"/>
-        <v>8.8901159270071304</v>
+        <v>9.0521517273939072</v>
       </c>
       <c r="N58" s="15">
         <f t="shared" si="5"/>
+        <v>3.1705128492712196</v>
+      </c>
+      <c r="P58" s="33">
+        <f t="shared" si="11"/>
+        <v>8.5683814812980241</v>
+      </c>
+      <c r="Q58" s="14">
+        <f t="shared" si="12"/>
+        <v>3.0932800521934678</v>
+      </c>
+      <c r="S58" s="33">
+        <f t="shared" si="6"/>
+        <v>9.1052514399026716</v>
+      </c>
+      <c r="T58" s="14">
+        <f t="shared" si="7"/>
+        <v>3.1788758138534874</v>
+      </c>
+      <c r="W58" s="14">
+        <f t="shared" si="8"/>
+        <v>3.3420752047886664</v>
+      </c>
+      <c r="Y58" s="33">
+        <v>9.3264915960376769</v>
+      </c>
+      <c r="Z58" s="14">
+        <v>3.2134858947936396</v>
+      </c>
+      <c r="AB58" s="33">
+        <f t="shared" si="9"/>
+        <v>8.8901159270071304</v>
+      </c>
+      <c r="AC58" s="15">
+        <f t="shared" si="10"/>
         <v>3.1448554699710973</v>
       </c>
-      <c r="P58" s="33">
-        <f t="shared" si="6"/>
-        <v>9.3264915960376769</v>
-      </c>
-      <c r="Q58" s="14">
-        <f t="shared" si="7"/>
-        <v>3.2134858947936396</v>
-      </c>
-      <c r="S58" s="33">
-        <f t="shared" si="8"/>
-        <v>9.1052514399026716</v>
-      </c>
-      <c r="T58" s="14">
-        <f t="shared" si="9"/>
-        <v>3.1788758138534874</v>
-      </c>
-    </row>
-    <row r="59" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="59" spans="8:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H59">
         <v>1180</v>
       </c>
@@ -7249,30 +8098,48 @@
       </c>
       <c r="M59" s="33">
         <f t="shared" si="4"/>
-        <v>8.8793594951173667</v>
+        <v>9.0408981493302107</v>
       </c>
       <c r="N59" s="15">
         <f t="shared" si="5"/>
+        <v>3.1687376270890923</v>
+      </c>
+      <c r="P59" s="33">
+        <f t="shared" si="11"/>
+        <v>8.5594036470415773</v>
+      </c>
+      <c r="Q59" s="14">
+        <f t="shared" si="12"/>
+        <v>3.0918285280787448</v>
+      </c>
+      <c r="S59" s="33">
+        <f t="shared" si="6"/>
+        <v>9.07622275194643</v>
+      </c>
+      <c r="T59" s="14">
+        <f t="shared" si="7"/>
+        <v>3.174306656885316</v>
+      </c>
+      <c r="W59" s="14">
+        <f t="shared" si="8"/>
+        <v>3.3396550664457041</v>
+      </c>
+      <c r="Y59" s="33">
+        <v>9.3125071395306804</v>
+      </c>
+      <c r="Z59" s="14">
+        <v>3.2113092562895091</v>
+      </c>
+      <c r="AB59" s="33">
+        <f t="shared" si="9"/>
+        <v>8.8793594951173667</v>
+      </c>
+      <c r="AC59" s="15">
+        <f t="shared" si="10"/>
         <v>3.1431448415746557</v>
       </c>
-      <c r="P59" s="33">
-        <f t="shared" si="6"/>
-        <v>9.3125071395306804</v>
-      </c>
-      <c r="Q59" s="14">
-        <f t="shared" si="7"/>
-        <v>3.2113092562895091</v>
-      </c>
-      <c r="S59" s="33">
-        <f t="shared" si="8"/>
-        <v>9.07622275194643</v>
-      </c>
-      <c r="T59" s="14">
-        <f t="shared" si="9"/>
-        <v>3.174306656885316</v>
-      </c>
-    </row>
-    <row r="60" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="60" spans="8:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H60">
         <v>1190</v>
       </c>
@@ -7294,30 +8161,48 @@
       </c>
       <c r="M60" s="33">
         <f t="shared" si="4"/>
-        <v>8.8689077611409779</v>
+        <v>9.0299640532333267</v>
       </c>
       <c r="N60" s="15">
         <f t="shared" si="5"/>
+        <v>3.1670118492410677</v>
+      </c>
+      <c r="P60" s="33">
+        <f t="shared" si="11"/>
+        <v>8.5506807873261899</v>
+      </c>
+      <c r="Q60" s="14">
+        <f t="shared" si="12"/>
+        <v>3.0904175749121978</v>
+      </c>
+      <c r="S60" s="33">
+        <f t="shared" si="6"/>
+        <v>9.0549652185301088</v>
+      </c>
+      <c r="T60" s="14">
+        <f t="shared" si="7"/>
+        <v>3.170956514764923</v>
+      </c>
+      <c r="W60" s="14">
+        <f t="shared" si="8"/>
+        <v>3.337309968028793</v>
+      </c>
+      <c r="Y60" s="33">
+        <v>9.2989328804663725</v>
+      </c>
+      <c r="Z60" s="14">
+        <v>3.2091950517951338</v>
+      </c>
+      <c r="AB60" s="33">
+        <f t="shared" si="9"/>
+        <v>8.8689077611409779</v>
+      </c>
+      <c r="AC60" s="15">
+        <f t="shared" si="10"/>
         <v>3.1414817779418964</v>
       </c>
-      <c r="P60" s="33">
-        <f t="shared" si="6"/>
-        <v>9.2989328804663725</v>
-      </c>
-      <c r="Q60" s="14">
-        <f t="shared" si="7"/>
-        <v>3.2091950517951338</v>
-      </c>
-      <c r="S60" s="33">
-        <f t="shared" si="8"/>
-        <v>9.0549652185301088</v>
-      </c>
-      <c r="T60" s="14">
-        <f t="shared" si="9"/>
-        <v>3.170956514764923</v>
-      </c>
-    </row>
-    <row r="61" spans="8:20" ht="19.5" x14ac:dyDescent="0.4">
+    </row>
+    <row r="61" spans="8:29" ht="19.5" x14ac:dyDescent="0.4">
       <c r="H61">
         <v>1200</v>
       </c>
@@ -7339,27 +8224,45 @@
       </c>
       <c r="M61" s="33">
         <f t="shared" si="4"/>
-        <v>8.8587489583946812</v>
+        <v>9.0193370696641786</v>
       </c>
       <c r="N61" s="15">
         <f t="shared" si="5"/>
+        <v>3.1653336427088026</v>
+      </c>
+      <c r="P61" s="33">
+        <f t="shared" si="11"/>
+        <v>8.5422029756781779</v>
+      </c>
+      <c r="Q61" s="14">
+        <f t="shared" si="12"/>
+        <v>3.0890456415660448</v>
+      </c>
+      <c r="S61" s="33">
+        <f t="shared" si="6"/>
+        <v>9.0369690212246869</v>
+      </c>
+      <c r="T61" s="14">
+        <f t="shared" si="7"/>
+        <v>3.168117583238458</v>
+      </c>
+      <c r="W61" s="14">
+        <f t="shared" si="8"/>
+        <v>3.3350365086512528</v>
+      </c>
+      <c r="Y61" s="33">
+        <v>9.2857522287759799</v>
+      </c>
+      <c r="Z61" s="14">
+        <v>3.2071408183576815</v>
+      </c>
+      <c r="AB61" s="33">
+        <f t="shared" si="9"/>
+        <v>8.8587489583946812</v>
+      </c>
+      <c r="AC61" s="15">
+        <f t="shared" si="10"/>
         <v>3.139864480896378</v>
-      </c>
-      <c r="P61" s="33">
-        <f t="shared" si="6"/>
-        <v>9.2857522287759799</v>
-      </c>
-      <c r="Q61" s="14">
-        <f t="shared" si="7"/>
-        <v>3.2071408183576815</v>
-      </c>
-      <c r="S61" s="33">
-        <f t="shared" si="8"/>
-        <v>9.0369690212246869</v>
-      </c>
-      <c r="T61" s="14">
-        <f t="shared" si="9"/>
-        <v>3.168117583238458</v>
       </c>
     </row>
   </sheetData>
@@ -7433,7 +8336,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="44" t="s">
         <v>54</v>
       </c>
       <c r="B4" t="s">
@@ -7467,7 +8370,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="42"/>
+      <c r="A5" s="44"/>
       <c r="B5" t="s">
         <v>33</v>
       </c>
